--- a/biology/Zoologie/Gobemouche_ferrugineux/Gobemouche_ferrugineux.xlsx
+++ b/biology/Zoologie/Gobemouche_ferrugineux/Gobemouche_ferrugineux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Muscicapa ferruginea
 Le Gobemouche ferrugineux (Muscicapa ferruginea) est une espèce d'oiseaux de la famille des Muscicapidae.
@@ -512,7 +524,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Dessin d'un individu par Keulemans
@@ -542,12 +556,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Comportement</t>
+          <t>Répartition et habitat</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Reproduction</t>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau se trouve au Bangladesh, au Bhoutan, en Birmanie, en Chine, en Inde, en Indonésie, au Japon, au Laos, en Malaisie, au Népal, aux Philippines, à Singapour, à Taiwan, en Thaïlande et au Vietnam.
+</t>
         </is>
       </c>
     </row>
@@ -577,10 +598,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Répartition
-Cet oiseau se trouve au Bangladesh, au Bhoutan, en Birmanie, en Chine, en Inde, en Indonésie, au Japon, au Laos, en Malaisie, au Népal, aux Philippines, à Singapour, à Taiwan, en Thaïlande et au Vietnam.
-Habitat
-Son habitat naturel est les forêts humides subtropicales ou tropicales humides de montagne.
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat naturel est les forêts humides subtropicales ou tropicales humides de montagne.
 </t>
         </is>
       </c>
@@ -609,11 +633,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Muscicapa ferruginea a été décrite par l'ethnologue et naturaliste britannique Brian Houghton Hodgson en 1845, sous le nom initial de Hemichelidon ferruginea[1].
-Synonyme
-Hemichelidon ferruginea Hodgson, 1845</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Muscicapa ferruginea a été décrite par l'ethnologue et naturaliste britannique Brian Houghton Hodgson en 1845, sous le nom initial de Hemichelidon ferruginea.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gobemouche_ferrugineux</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gobemouche_ferrugineux</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Hemichelidon ferruginea Hodgson, 1845</t>
         </is>
       </c>
     </row>
